--- a/sample.xlsx
+++ b/sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Order</t>
   </si>
@@ -45,13 +45,10 @@
     <t>Date</t>
   </si>
   <si>
-    <t>10/12</t>
-  </si>
-  <si>
-    <t>14/05</t>
-  </si>
-  <si>
-    <t>13/06</t>
+    <t>15/06</t>
+  </si>
+  <si>
+    <t>14/12</t>
   </si>
 </sst>
 </file>
@@ -393,8 +390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,9 +447,6 @@
       </c>
       <c r="C4">
         <v>6.3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
